--- a/services/worker/scripts/report/output/revenue/this_month/revenue-this_month.xlsx
+++ b/services/worker/scripts/report/output/revenue/this_month/revenue-this_month.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="131">
   <si>
     <t>דוח הכנסות - דוגמה בע"מ - Demo Business Ltd</t>
   </si>
   <si>
-    <t>תקופה: 2026-01-01 עד 2026-01-31</t>
+    <t>תקופה: 2026-02-01 עד 2026-02-28</t>
   </si>
   <si>
     <t>מדד</t>
@@ -26,13 +26,37 @@
     <t>ערך</t>
   </si>
   <si>
-    <t>סה"כ הכנסות</t>
+    <t>סה"כ חשבוניות שהונפקו (ILS)</t>
   </si>
   <si>
     <t>₪45,650</t>
   </si>
   <si>
-    <t>מספר חשבוניות (ILS)</t>
+    <t>תקבולים בפועל (ILS)</t>
+  </si>
+  <si>
+    <t>₪35,200</t>
+  </si>
+  <si>
+    <t>חשבוניות ממתינות (ILS)</t>
+  </si>
+  <si>
+    <t>₪10,450</t>
+  </si>
+  <si>
+    <t>אחוז גביה</t>
+  </si>
+  <si>
+    <t>77.1%</t>
+  </si>
+  <si>
+    <t>מספר מסמכים שהונפקו</t>
+  </si>
+  <si>
+    <t>מספר תשלומים שהתקבלו</t>
+  </si>
+  <si>
+    <t>מספר חשבוניות ממתינות</t>
   </si>
   <si>
     <t>ממוצע לחשבונית (ILS)</t>
@@ -65,6 +89,15 @@
     <t>מטבע</t>
   </si>
   <si>
+    <t>סטטוס</t>
+  </si>
+  <si>
+    <t>סכום ששולם</t>
+  </si>
+  <si>
+    <t>יתרה</t>
+  </si>
+  <si>
     <t>אמצעי תשלום</t>
   </si>
   <si>
@@ -74,7 +107,7 @@
     <t>קישור</t>
   </si>
   <si>
-    <t>2026-01-01</t>
+    <t>2026-02-01</t>
   </si>
   <si>
     <t>לקוח א' בע"מ</t>
@@ -83,6 +116,9 @@
     <t>ILS</t>
   </si>
   <si>
+    <t>שולם</t>
+  </si>
+  <si>
     <t>העברה בנקאית</t>
   </si>
   <si>
@@ -92,7 +128,7 @@
     <t>https://storage.googleapis.com/demo-bucket-invoices/2026-001.pdf</t>
   </si>
   <si>
-    <t>2026-01-02</t>
+    <t>2026-02-02</t>
   </si>
   <si>
     <t>לקוח ב' - עסק פרטי</t>
@@ -107,7 +143,7 @@
     <t>https://storage.googleapis.com/demo-bucket-invoices/2026-002.pdf</t>
   </si>
   <si>
-    <t>2026-01-03</t>
+    <t>2026-02-03</t>
   </si>
   <si>
     <t>חברה ג' לטכנולוגיה</t>
@@ -122,7 +158,7 @@
     <t>https://storage.googleapis.com/demo-bucket-invoices/2026-003.pdf</t>
   </si>
   <si>
-    <t>2026-01-04</t>
+    <t>2026-02-04</t>
   </si>
   <si>
     <t>לקוח ד' - פרילנסר</t>
@@ -134,19 +170,22 @@
     <t>https://storage.googleapis.com/demo-bucket-invoices/2026-004.pdf</t>
   </si>
   <si>
-    <t>2026-01-06</t>
+    <t>2026-02-05</t>
   </si>
   <si>
     <t>עסק ה' - חנות אינטרנט</t>
   </si>
   <si>
+    <t>ממתין</t>
+  </si>
+  <si>
     <t>פיתוח אתר</t>
   </si>
   <si>
     <t>https://storage.googleapis.com/demo-bucket-invoices/2026-005.pdf</t>
   </si>
   <si>
-    <t>2026-01-07</t>
+    <t>2026-02-06</t>
   </si>
   <si>
     <t>לקוח ו' - סטארטאפ</t>
@@ -158,7 +197,7 @@
     <t>https://storage.googleapis.com/demo-bucket-invoices/2026-006.pdf</t>
   </si>
   <si>
-    <t>2026-01-08</t>
+    <t>2026-02-08</t>
   </si>
   <si>
     <t>חברה ז' למסחר</t>
@@ -170,7 +209,7 @@
     <t>https://storage.googleapis.com/demo-bucket-invoices/2026-007.pdf</t>
   </si>
   <si>
-    <t>2026-01-10</t>
+    <t>2026-02-09</t>
   </si>
   <si>
     <t>לקוח ח' - משרד עורכי דין</t>
@@ -182,7 +221,7 @@
     <t>https://storage.googleapis.com/demo-bucket-invoices/2026-008.pdf</t>
   </si>
   <si>
-    <t>2026-01-11</t>
+    <t>2026-02-10</t>
   </si>
   <si>
     <t>עסק ט' - מסעדה</t>
@@ -197,7 +236,7 @@
     <t>https://storage.googleapis.com/demo-bucket-invoices/2026-009.pdf</t>
   </si>
   <si>
-    <t>2026-01-12</t>
+    <t>2026-02-11</t>
   </si>
   <si>
     <t>לקוח י' בע"מ</t>
@@ -209,7 +248,7 @@
     <t>https://storage.googleapis.com/demo-bucket-invoices/2026-010.pdf</t>
   </si>
   <si>
-    <t>2026-01-14</t>
+    <t>2026-02-12</t>
   </si>
   <si>
     <t>חברה יא' - קמעונאות</t>
@@ -221,19 +260,22 @@
     <t>https://storage.googleapis.com/demo-bucket-invoices/2026-011.pdf</t>
   </si>
   <si>
-    <t>2026-01-15</t>
+    <t>2026-02-13</t>
   </si>
   <si>
     <t>לקוח יב' - תעשייה</t>
   </si>
   <si>
+    <t>שולם חלקי</t>
+  </si>
+  <si>
     <t>אוטומציה</t>
   </si>
   <si>
     <t>https://storage.googleapis.com/demo-bucket-invoices/2026-012.pdf</t>
   </si>
   <si>
-    <t>2026-01-16</t>
+    <t>2026-02-15</t>
   </si>
   <si>
     <t>עסק יג' - בריאות</t>
@@ -245,7 +287,7 @@
     <t>https://storage.googleapis.com/demo-bucket-invoices/2026-013.pdf</t>
   </si>
   <si>
-    <t>2026-01-17</t>
+    <t>2026-02-16</t>
   </si>
   <si>
     <t>לקוח יד' - חינוך</t>
@@ -257,7 +299,7 @@
     <t>https://storage.googleapis.com/demo-bucket-invoices/2026-014.pdf</t>
   </si>
   <si>
-    <t>2026-01-19</t>
+    <t>2026-02-17</t>
   </si>
   <si>
     <t>חברה טו' - לוגיסטיקה</t>
@@ -269,7 +311,7 @@
     <t>https://storage.googleapis.com/demo-bucket-invoices/2026-015.pdf</t>
   </si>
   <si>
-    <t>2026-01-20</t>
+    <t>2026-02-18</t>
   </si>
   <si>
     <t>לקוח טז' - תיירות</t>
@@ -281,7 +323,7 @@
     <t>https://storage.googleapis.com/demo-bucket-invoices/2026-016.pdf</t>
   </si>
   <si>
-    <t>2026-01-21</t>
+    <t>2026-02-19</t>
   </si>
   <si>
     <t>עסק יז' - אופנה</t>
@@ -293,7 +335,7 @@
     <t>https://storage.googleapis.com/demo-bucket-invoices/2026-017.pdf</t>
   </si>
   <si>
-    <t>2026-01-23</t>
+    <t>2026-02-20</t>
   </si>
   <si>
     <t>לקוח יח' - נדל"ן</t>
@@ -305,7 +347,7 @@
     <t>https://storage.googleapis.com/demo-bucket-invoices/2026-018.pdf</t>
   </si>
   <si>
-    <t>2026-01-24</t>
+    <t>2026-02-22</t>
   </si>
   <si>
     <t>חברה יט' - פיננסים</t>
@@ -317,7 +359,7 @@
     <t>https://storage.googleapis.com/demo-bucket-invoices/2026-019.pdf</t>
   </si>
   <si>
-    <t>2026-01-25</t>
+    <t>2026-02-23</t>
   </si>
   <si>
     <t>לקוח כ' - תקשורת</t>
@@ -329,7 +371,7 @@
     <t>https://storage.googleapis.com/demo-bucket-invoices/2026-020.pdf</t>
   </si>
   <si>
-    <t>2026-01-27</t>
+    <t>2026-02-24</t>
   </si>
   <si>
     <t>עסק כא' - ספורט</t>
@@ -341,7 +383,7 @@
     <t>https://storage.googleapis.com/demo-bucket-invoices/2026-021.pdf</t>
   </si>
   <si>
-    <t>2026-01-28</t>
+    <t>2026-02-25</t>
   </si>
   <si>
     <t>לקוח כב' - אנרגיה</t>
@@ -353,7 +395,7 @@
     <t>https://storage.googleapis.com/demo-bucket-invoices/2026-022.pdf</t>
   </si>
   <si>
-    <t>2026-01-29</t>
+    <t>2026-02-26</t>
   </si>
   <si>
     <t>חברה כג' - רכב</t>
@@ -767,7 +809,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="1"/>
   </sheetViews>
@@ -813,32 +855,72 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>23</v>
+      <c r="B6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>12</v>
+      </c>
+      <c r="B10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -853,7 +935,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="1"/>
   </sheetViews>
@@ -863,561 +945,778 @@
     <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="40" customWidth="1"/>
+    <col min="5" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C2" s="4">
         <v>5200</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C3" s="4">
         <v>3800</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C4" s="4">
         <v>2400</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C5" s="4">
         <v>1900</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C6" s="4">
         <v>4200</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>4200</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C7" s="4">
         <v>3200</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C8" s="4">
         <v>1550</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C9" s="4">
         <v>2800</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C10" s="4">
         <v>1200</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C11" s="4">
         <v>3500</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C12" s="4">
         <v>2100</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C13" s="4">
         <v>4800</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="F13" s="4">
+        <v>3250</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1550</v>
+      </c>
+      <c r="H13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C14" s="4">
         <v>2600</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C15" s="4">
         <v>1800</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C16" s="4">
         <v>3800</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" t="s">
+        <v>97</v>
+      </c>
+      <c r="J16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C17" s="4">
         <v>1450</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C18" s="4">
         <v>2200</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" t="s">
+        <v>105</v>
+      </c>
+      <c r="J18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="C19" s="4">
         <v>3600</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" t="s">
+        <v>109</v>
+      </c>
+      <c r="J19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C20" s="4">
         <v>4500</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3100</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1400</v>
+      </c>
+      <c r="H20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C21" s="4">
         <v>2900</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" t="s">
-        <v>103</v>
-      </c>
-      <c r="G21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" t="s">
+        <v>117</v>
+      </c>
+      <c r="J21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="C22" s="4">
         <v>1750</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" t="s">
-        <v>107</v>
-      </c>
-      <c r="G22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" t="s">
+        <v>121</v>
+      </c>
+      <c r="J22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C23" s="4">
         <v>3300</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" t="s">
-        <v>111</v>
-      </c>
-      <c r="G23" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>3300</v>
+      </c>
+      <c r="H23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" t="s">
+        <v>125</v>
+      </c>
+      <c r="J23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C24" s="4">
         <v>350</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" t="s">
-        <v>115</v>
-      </c>
-      <c r="G24" t="s">
-        <v>116</v>
+        <v>34</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" t="s">
+        <v>129</v>
+      </c>
+      <c r="J24" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
